--- a/문서/몬스터 기획 v0.5.xlsx
+++ b/문서/몬스터 기획 v0.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Unity\4Team_UnityProject\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930910DA-4558-4CFA-BFF4-AD1F448D15E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F943EF-DD6C-49D9-8BD7-634597E098CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 설정" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="165">
   <si>
     <t>분류</t>
   </si>
@@ -598,6 +598,10 @@
   </si>
   <si>
     <t>오르골, 동화책 설명 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동화책 인식범위(0&gt;10) 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1668,22 +1672,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="51.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="7.59765625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="12.59765625" style="1"/>
+    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="7.625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="27" customHeight="1"/>
@@ -2024,7 +2028,9 @@
         <v>103</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" ht="16.5" customHeight="1">
@@ -5002,29 +5008,29 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.19921875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.59765625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.59765625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.09765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.125" style="18" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="7.59765625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="12.59765625" style="1"/>
+    <col min="23" max="28" width="7.625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.5" customHeight="1">
@@ -5686,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P13" s="3">
         <v>8</v>
@@ -28492,26 +28498,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.09765625" style="1" customWidth="1"/>
-    <col min="10" max="26" width="7.59765625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="12.59765625" style="1"/>
+    <col min="9" max="9" width="11.125" style="1" customWidth="1"/>
+    <col min="10" max="26" width="7.625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.2" customHeight="1">
+    <row r="1" spans="1:26" ht="16.149999999999999" customHeight="1">
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:26" ht="27.75" customHeight="1">
@@ -28558,7 +28564,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:26" ht="74.400000000000006" customHeight="1">
+    <row r="3" spans="1:26" ht="74.45" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -28630,7 +28636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="91.2" customHeight="1">
+    <row r="6" spans="1:26" ht="91.15" customHeight="1">
       <c r="B6" s="5">
         <v>4</v>
       </c>
